--- a/Code/Results/Cases/Case_3_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9788949962244401</v>
+        <v>1.030726297540218</v>
       </c>
       <c r="D2">
-        <v>0.9998892270264159</v>
+        <v>1.033966068688836</v>
       </c>
       <c r="E2">
-        <v>0.987557965607717</v>
+        <v>1.030315697076221</v>
       </c>
       <c r="F2">
-        <v>0.9561352234203024</v>
+        <v>1.036135004436687</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032129258276803</v>
+        <v>1.032339117213274</v>
       </c>
       <c r="J2">
-        <v>1.001725814570476</v>
+        <v>1.035865950840768</v>
       </c>
       <c r="K2">
-        <v>1.011350105308074</v>
+        <v>1.036766899286371</v>
       </c>
       <c r="L2">
-        <v>0.9991934030503975</v>
+        <v>1.033127063265789</v>
       </c>
       <c r="M2">
-        <v>0.9682414880072828</v>
+        <v>1.038929613308421</v>
       </c>
       <c r="N2">
-        <v>1.003148380126723</v>
+        <v>1.037336999306461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9871601509256952</v>
+        <v>1.032294342180037</v>
       </c>
       <c r="D3">
-        <v>1.00621412522968</v>
+        <v>1.035163171379579</v>
       </c>
       <c r="E3">
-        <v>0.9944635793691029</v>
+        <v>1.031669516719321</v>
       </c>
       <c r="F3">
-        <v>0.9692345284173015</v>
+        <v>1.038474852550451</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034841616676904</v>
+        <v>1.03274007011188</v>
       </c>
       <c r="J3">
-        <v>1.008007070297175</v>
+        <v>1.037072418446276</v>
       </c>
       <c r="K3">
-        <v>1.01676810785326</v>
+        <v>1.03777205743496</v>
       </c>
       <c r="L3">
-        <v>1.005167793327078</v>
+        <v>1.034287746945129</v>
       </c>
       <c r="M3">
-        <v>0.9802768055723868</v>
+        <v>1.041074943880548</v>
       </c>
       <c r="N3">
-        <v>1.009438555957024</v>
+        <v>1.038545180234339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9923201193666188</v>
+        <v>1.033306671293695</v>
       </c>
       <c r="D4">
-        <v>1.010162660871591</v>
+        <v>1.035935506472467</v>
       </c>
       <c r="E4">
-        <v>0.9987811705779106</v>
+        <v>1.032543683083307</v>
       </c>
       <c r="F4">
-        <v>0.9772955813881908</v>
+        <v>1.039981842094572</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036513752678308</v>
+        <v>1.032996811771873</v>
       </c>
       <c r="J4">
-        <v>1.011922338579865</v>
+        <v>1.037850468466743</v>
       </c>
       <c r="K4">
-        <v>1.020139959574212</v>
+        <v>1.038419634278845</v>
       </c>
       <c r="L4">
-        <v>1.008894328089933</v>
+        <v>1.035036419991269</v>
       </c>
       <c r="M4">
-        <v>0.9876759791852705</v>
+        <v>1.042455778652844</v>
       </c>
       <c r="N4">
-        <v>1.013359384369763</v>
+        <v>1.039324335175078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9944474027968823</v>
+        <v>1.033731715264339</v>
       </c>
       <c r="D5">
-        <v>1.011790404992232</v>
+        <v>1.03625966087158</v>
       </c>
       <c r="E5">
-        <v>1.000562587837141</v>
+        <v>1.032910749803587</v>
       </c>
       <c r="F5">
-        <v>0.9805944045958438</v>
+        <v>1.040613733894353</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037198148507599</v>
+        <v>1.033104103803129</v>
       </c>
       <c r="J5">
-        <v>1.013534965603048</v>
+        <v>1.038176943605635</v>
       </c>
       <c r="K5">
-        <v>1.021527497838289</v>
+        <v>1.03869120642058</v>
       </c>
       <c r="L5">
-        <v>1.010429797786936</v>
+        <v>1.035350603840775</v>
       </c>
       <c r="M5">
-        <v>0.990702179739489</v>
+        <v>1.043034563216151</v>
       </c>
       <c r="N5">
-        <v>1.014974301508289</v>
+        <v>1.039651273946114</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9948022050667228</v>
+        <v>1.033803050733513</v>
       </c>
       <c r="D6">
-        <v>1.012061882371807</v>
+        <v>1.036314056671154</v>
       </c>
       <c r="E6">
-        <v>1.000859784518334</v>
+        <v>1.032972356799872</v>
       </c>
       <c r="F6">
-        <v>0.9811432562142574</v>
+        <v>1.040719735925752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037312007000382</v>
+        <v>1.033122081083718</v>
       </c>
       <c r="J6">
-        <v>1.013803840375811</v>
+        <v>1.038231724291079</v>
       </c>
       <c r="K6">
-        <v>1.021758769169852</v>
+        <v>1.038736765562787</v>
       </c>
       <c r="L6">
-        <v>1.010685841242775</v>
+        <v>1.03540332419342</v>
       </c>
       <c r="M6">
-        <v>0.9912055678504854</v>
+        <v>1.043131644025221</v>
       </c>
       <c r="N6">
-        <v>1.015243558114071</v>
+        <v>1.039706132426416</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9923487053270308</v>
+        <v>1.033312352854729</v>
       </c>
       <c r="D7">
-        <v>1.010184534654663</v>
+        <v>1.035939839931243</v>
       </c>
       <c r="E7">
-        <v>0.9988051033929984</v>
+        <v>1.032548589535038</v>
       </c>
       <c r="F7">
-        <v>0.9773400029663728</v>
+        <v>1.039990291879062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036522968997282</v>
+        <v>1.032998247930161</v>
       </c>
       <c r="J7">
-        <v>1.01194401472331</v>
+        <v>1.037854833255858</v>
       </c>
       <c r="K7">
-        <v>1.02015861518802</v>
+        <v>1.038423265657691</v>
       </c>
       <c r="L7">
-        <v>1.008914964867977</v>
+        <v>1.035040620313448</v>
       </c>
       <c r="M7">
-        <v>0.987716736722149</v>
+        <v>1.04246351910132</v>
       </c>
       <c r="N7">
-        <v>1.013381091295817</v>
+        <v>1.039328706162694</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9817291647851722</v>
+        <v>1.031256708931827</v>
       </c>
       <c r="D8">
-        <v>1.0020580497306</v>
+        <v>1.034371110249953</v>
       </c>
       <c r="E8">
-        <v>0.9899245117708503</v>
+        <v>1.030773614319127</v>
       </c>
       <c r="F8">
-        <v>0.9606542371037934</v>
+        <v>1.036927251300846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033063915197974</v>
+        <v>1.032475183324518</v>
       </c>
       <c r="J8">
-        <v>1.003880974771991</v>
+        <v>1.036274229151046</v>
       </c>
       <c r="K8">
-        <v>1.013210215407578</v>
+        <v>1.037107187397051</v>
       </c>
       <c r="L8">
-        <v>1.001242714047533</v>
+        <v>1.03351981688095</v>
       </c>
       <c r="M8">
-        <v>0.9723949338352824</v>
+        <v>1.039656180303072</v>
       </c>
       <c r="N8">
-        <v>1.005306600902925</v>
+        <v>1.037745857418757</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9614151325062243</v>
+        <v>1.027616258844152</v>
       </c>
       <c r="D9">
-        <v>0.9865154838967505</v>
+        <v>1.031589045762062</v>
       </c>
       <c r="E9">
-        <v>0.9729956232043142</v>
+        <v>1.027631340902311</v>
       </c>
       <c r="F9">
-        <v>0.9275558308667537</v>
+        <v>1.031473944382903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026264830929662</v>
+        <v>1.031532575307965</v>
       </c>
       <c r="J9">
-        <v>0.988408067322085</v>
+        <v>1.033468567068438</v>
       </c>
       <c r="K9">
-        <v>0.9998311934468359</v>
+        <v>1.034766080100155</v>
       </c>
       <c r="L9">
-        <v>0.9865425686669914</v>
+        <v>1.030821462193771</v>
       </c>
       <c r="M9">
-        <v>0.9419448453819995</v>
+        <v>1.034651357771974</v>
       </c>
       <c r="N9">
-        <v>0.9898117201496722</v>
+        <v>1.034936210974177</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9465270401144348</v>
+        <v>1.025176357823643</v>
       </c>
       <c r="D10">
-        <v>0.975130543294878</v>
+        <v>1.029721865727992</v>
       </c>
       <c r="E10">
-        <v>0.9606387756973008</v>
+        <v>1.025526143103326</v>
       </c>
       <c r="F10">
-        <v>0.9020612826172754</v>
+        <v>1.027798245861186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021139986580784</v>
+        <v>1.030889820239087</v>
       </c>
       <c r="J10">
-        <v>0.9770354998221416</v>
+        <v>1.031583812668208</v>
       </c>
       <c r="K10">
-        <v>0.9899638259947557</v>
+        <v>1.033190046329325</v>
       </c>
       <c r="L10">
-        <v>0.9757570349654989</v>
+        <v>1.029009585721149</v>
       </c>
       <c r="M10">
-        <v>0.9184567452347778</v>
+        <v>1.031273406576361</v>
       </c>
       <c r="N10">
-        <v>0.9784230022994271</v>
+        <v>1.033048780006514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9396831223218676</v>
+        <v>1.024116620663884</v>
       </c>
       <c r="D11">
-        <v>0.9698990235486341</v>
+        <v>1.028910279322375</v>
       </c>
       <c r="E11">
-        <v>0.9549730404624361</v>
+        <v>1.024611985738713</v>
       </c>
       <c r="F11">
-        <v>0.8899001171938328</v>
+        <v>1.026196512039064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018744172184482</v>
+        <v>1.030608029516095</v>
       </c>
       <c r="J11">
-        <v>0.9717997840071398</v>
+        <v>1.030764169361866</v>
       </c>
       <c r="K11">
-        <v>0.9854118372489815</v>
+        <v>1.032503866186589</v>
       </c>
       <c r="L11">
-        <v>0.9707971677596898</v>
+        <v>1.028221826409371</v>
       </c>
       <c r="M11">
-        <v>0.9072469354274085</v>
+        <v>1.029800343335674</v>
       </c>
       <c r="N11">
-        <v>0.9731798511674229</v>
+        <v>1.032227972712662</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9370727478006892</v>
+        <v>1.023722485374168</v>
       </c>
       <c r="D12">
-        <v>0.9679039318930125</v>
+        <v>1.028608346096102</v>
       </c>
       <c r="E12">
-        <v>0.9528144900537677</v>
+        <v>1.024272026221178</v>
       </c>
       <c r="F12">
-        <v>0.8851767944937559</v>
+        <v>1.02559998323757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017823546964262</v>
+        <v>1.030502832149464</v>
       </c>
       <c r="J12">
-        <v>0.9698015606780801</v>
+        <v>1.030459175422984</v>
       </c>
       <c r="K12">
-        <v>0.9836730043023638</v>
+        <v>1.032248415563668</v>
       </c>
       <c r="L12">
-        <v>0.9689051844463936</v>
+        <v>1.027928725597951</v>
       </c>
       <c r="M12">
-        <v>0.9028925345528913</v>
+        <v>1.029251573289651</v>
       </c>
       <c r="N12">
-        <v>0.9711787901320368</v>
+        <v>1.031922545647404</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9376359299409525</v>
+        <v>1.023807051668285</v>
       </c>
       <c r="D13">
-        <v>0.9683343563179504</v>
+        <v>1.028673133411444</v>
       </c>
       <c r="E13">
-        <v>0.9532800775158713</v>
+        <v>1.024344967009181</v>
       </c>
       <c r="F13">
-        <v>0.8862000387292565</v>
+        <v>1.02572801273064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018022494177985</v>
+        <v>1.030525421318817</v>
       </c>
       <c r="J13">
-        <v>0.9702327303201351</v>
+        <v>1.03052462236337</v>
       </c>
       <c r="K13">
-        <v>0.9840482772476317</v>
+        <v>1.032303236667151</v>
       </c>
       <c r="L13">
-        <v>0.9693133842965106</v>
+        <v>1.027991619146767</v>
       </c>
       <c r="M13">
-        <v>0.9038358772069542</v>
+        <v>1.029369359909168</v>
       </c>
       <c r="N13">
-        <v>0.9716105720844394</v>
+        <v>1.031988085529953</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9394687968292337</v>
+        <v>1.024084051636627</v>
       </c>
       <c r="D14">
-        <v>0.9697352105463746</v>
+        <v>1.028885331155761</v>
       </c>
       <c r="E14">
-        <v>0.9547957610531672</v>
+        <v>1.024583892819993</v>
       </c>
       <c r="F14">
-        <v>0.8895141549943507</v>
+        <v>1.026147235182429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018668727950465</v>
+        <v>1.030599344669198</v>
       </c>
       <c r="J14">
-        <v>0.9716357450486014</v>
+        <v>1.030738969588338</v>
       </c>
       <c r="K14">
-        <v>0.985269124964794</v>
+        <v>1.03248276229987</v>
       </c>
       <c r="L14">
-        <v>0.9706418300255879</v>
+        <v>1.028197608700923</v>
       </c>
       <c r="M14">
-        <v>0.9068911290062659</v>
+        <v>1.02975501493239</v>
       </c>
       <c r="N14">
-        <v>0.9730155792547481</v>
+        <v>1.032202737152566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9405887537318652</v>
+        <v>1.024254653543255</v>
       </c>
       <c r="D15">
-        <v>0.9705912260923102</v>
+        <v>1.029016010079717</v>
       </c>
       <c r="E15">
-        <v>0.9557222345315761</v>
+        <v>1.024731049453344</v>
       </c>
       <c r="F15">
-        <v>0.8915274335975054</v>
+        <v>1.026405321909421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019062679276679</v>
+        <v>1.030644821176007</v>
       </c>
       <c r="J15">
-        <v>0.9724928790700984</v>
+        <v>1.030870963839291</v>
       </c>
       <c r="K15">
-        <v>0.9860147589630771</v>
+        <v>1.03259329777459</v>
       </c>
       <c r="L15">
-        <v>0.9714535382952268</v>
+        <v>1.028324460163899</v>
       </c>
       <c r="M15">
-        <v>0.9087470859352254</v>
+        <v>1.029992415088466</v>
       </c>
       <c r="N15">
-        <v>0.9738739305048706</v>
+        <v>1.032334918850494</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9469721925980389</v>
+        <v>1.025246619521401</v>
       </c>
       <c r="D16">
-        <v>0.9754708618637448</v>
+        <v>1.029775662160909</v>
       </c>
       <c r="E16">
-        <v>0.9610076155628988</v>
+        <v>1.025586757134148</v>
       </c>
       <c r="F16">
-        <v>0.9028418127440692</v>
+        <v>1.027904329830811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021294936014535</v>
+        <v>1.030908448077719</v>
       </c>
       <c r="J16">
-        <v>0.9773758840023041</v>
+        <v>1.031638134318934</v>
       </c>
       <c r="K16">
-        <v>0.9902595576181492</v>
+        <v>1.033235506064406</v>
       </c>
       <c r="L16">
-        <v>0.976079609894522</v>
+        <v>1.029061798302232</v>
       </c>
       <c r="M16">
-        <v>0.9191761204128748</v>
+        <v>1.031370945984456</v>
       </c>
       <c r="N16">
-        <v>0.978763869864168</v>
+        <v>1.033103178800215</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9508645452577987</v>
+        <v>1.025867975000432</v>
       </c>
       <c r="D17">
-        <v>0.978446795073268</v>
+        <v>1.030251338573239</v>
       </c>
       <c r="E17">
-        <v>0.9642343605994923</v>
+        <v>1.026122817901934</v>
       </c>
       <c r="F17">
-        <v>0.9096157936261741</v>
+        <v>1.02884186933016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022645260088278</v>
+        <v>1.031072880179032</v>
       </c>
       <c r="J17">
-        <v>0.9803512781749012</v>
+        <v>1.032118406526788</v>
       </c>
       <c r="K17">
-        <v>0.9928435868906257</v>
+        <v>1.033637336269803</v>
       </c>
       <c r="L17">
-        <v>0.9788999637770489</v>
+        <v>1.029523445684097</v>
       </c>
       <c r="M17">
-        <v>0.9254187503606104</v>
+        <v>1.032232847157887</v>
       </c>
       <c r="N17">
-        <v>0.9817434894377729</v>
+        <v>1.033584133049692</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9530972243854199</v>
+        <v>1.026230089127442</v>
       </c>
       <c r="D18">
-        <v>0.980154002815593</v>
+        <v>1.030528495616554</v>
       </c>
       <c r="E18">
-        <v>0.9660865827626606</v>
+        <v>1.026435243674589</v>
       </c>
       <c r="F18">
-        <v>0.9134617643107138</v>
+        <v>1.029387746170924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023416161473864</v>
+        <v>1.03116845589857</v>
       </c>
       <c r="J18">
-        <v>0.9820572596209596</v>
+        <v>1.032398201140317</v>
       </c>
       <c r="K18">
-        <v>0.9943243289896747</v>
+        <v>1.033871356157157</v>
       </c>
       <c r="L18">
-        <v>0.9805175611518615</v>
+        <v>1.029792408283091</v>
       </c>
       <c r="M18">
-        <v>0.9289624999542098</v>
+        <v>1.03273458052382</v>
       </c>
       <c r="N18">
-        <v>0.9834518935731636</v>
+        <v>1.033864325003665</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.953852350590517</v>
+        <v>1.026353508196021</v>
       </c>
       <c r="D19">
-        <v>0.9807314386236247</v>
+        <v>1.030622948948397</v>
       </c>
       <c r="E19">
-        <v>0.9667132529175136</v>
+        <v>1.026541730823319</v>
       </c>
       <c r="F19">
-        <v>0.9147562508519946</v>
+        <v>1.029573712383158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023676291519552</v>
+        <v>1.031200988147327</v>
       </c>
       <c r="J19">
-        <v>0.982634126669105</v>
+        <v>1.032493546534147</v>
       </c>
       <c r="K19">
-        <v>0.9948248931874517</v>
+        <v>1.033951089975153</v>
       </c>
       <c r="L19">
-        <v>0.9810646252001681</v>
+        <v>1.029884065563867</v>
       </c>
       <c r="M19">
-        <v>0.9301551653316996</v>
+        <v>1.032905490628323</v>
       </c>
       <c r="N19">
-        <v>0.9840295798386847</v>
+        <v>1.033959805798891</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9504508840231737</v>
+        <v>1.02580134181444</v>
       </c>
       <c r="D20">
-        <v>0.9781305064613586</v>
+        <v>1.03020033378693</v>
       </c>
       <c r="E20">
-        <v>0.9638912958817493</v>
+        <v>1.026065329532821</v>
       </c>
       <c r="F20">
-        <v>0.9089001212546078</v>
+        <v>1.028741381337454</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022502138964694</v>
+        <v>1.031055272837177</v>
       </c>
       <c r="J20">
-        <v>0.9800351426873365</v>
+        <v>1.032066913117187</v>
       </c>
       <c r="K20">
-        <v>0.9925691228447381</v>
+        <v>1.033594261089156</v>
       </c>
       <c r="L20">
-        <v>0.9786002474323343</v>
+        <v>1.029473947274803</v>
       </c>
       <c r="M20">
-        <v>0.9247592704273659</v>
+        <v>1.032140476996024</v>
       </c>
       <c r="N20">
-        <v>0.9814269050015544</v>
+        <v>1.033532566513543</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9389310259562279</v>
+        <v>1.024002496016257</v>
       </c>
       <c r="D21">
-        <v>0.9693241866080492</v>
+        <v>1.028822857375088</v>
       </c>
       <c r="E21">
-        <v>0.9543509838659034</v>
+        <v>1.024513546277868</v>
       </c>
       <c r="F21">
-        <v>0.8885442878555851</v>
+        <v>1.02602382847361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018479315527884</v>
+        <v>1.030577590701106</v>
       </c>
       <c r="J21">
-        <v>0.9712241294594364</v>
+        <v>1.030675864723755</v>
       </c>
       <c r="K21">
-        <v>0.9849109977743926</v>
+        <v>1.032429912366148</v>
       </c>
       <c r="L21">
-        <v>0.9702520639365046</v>
+        <v>1.028136963575504</v>
       </c>
       <c r="M21">
-        <v>0.9059970308716312</v>
+        <v>1.029641493940848</v>
       </c>
       <c r="N21">
-        <v>0.9726033791242337</v>
+        <v>1.032139542671837</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9312873128790964</v>
+        <v>1.022868580202765</v>
       </c>
       <c r="D22">
-        <v>0.963482595082428</v>
+        <v>1.027954036192125</v>
       </c>
       <c r="E22">
-        <v>0.9480352841931888</v>
+        <v>1.02353555415849</v>
       </c>
       <c r="F22">
-        <v>0.8745235989192702</v>
+        <v>1.024306064960743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015769248986798</v>
+        <v>1.030274196624589</v>
       </c>
       <c r="J22">
-        <v>0.9653704149355377</v>
+        <v>1.029798116324696</v>
       </c>
       <c r="K22">
-        <v>0.9798139207298258</v>
+        <v>1.031694521307858</v>
       </c>
       <c r="L22">
-        <v>0.9647115834785374</v>
+        <v>1.027293497444247</v>
       </c>
       <c r="M22">
-        <v>0.8930707616688283</v>
+        <v>1.028060951770725</v>
       </c>
       <c r="N22">
-        <v>0.9667413516542804</v>
+        <v>1.031260547769372</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.93538081349405</v>
+        <v>1.02346997111175</v>
       </c>
       <c r="D23">
-        <v>0.9666108696072954</v>
+        <v>1.028414878640311</v>
       </c>
       <c r="E23">
-        <v>0.9514161336350198</v>
+        <v>1.024054230397335</v>
       </c>
       <c r="F23">
-        <v>0.8820884218998909</v>
+        <v>1.025217566723101</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017224776838409</v>
+        <v>1.030435323262729</v>
       </c>
       <c r="J23">
-        <v>0.9685060326410522</v>
+        <v>1.030263728888343</v>
       </c>
       <c r="K23">
-        <v>0.9825451822572426</v>
+        <v>1.032084683915032</v>
       </c>
       <c r="L23">
-        <v>0.9676788259681158</v>
+        <v>1.02774090860074</v>
       </c>
       <c r="M23">
-        <v>0.9000452654600877</v>
+        <v>1.028899727971999</v>
       </c>
       <c r="N23">
-        <v>0.9698814222965971</v>
+        <v>1.031726821556266</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9506379154990604</v>
+        <v>1.025831451447001</v>
       </c>
       <c r="D24">
-        <v>0.9782735115891588</v>
+        <v>1.030223381571971</v>
       </c>
       <c r="E24">
-        <v>0.9640464039216293</v>
+        <v>1.02609130682291</v>
       </c>
       <c r="F24">
-        <v>0.9092238251380549</v>
+        <v>1.028786790543523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02256686060805</v>
+        <v>1.031063229871298</v>
       </c>
       <c r="J24">
-        <v>0.9801780814322092</v>
+        <v>1.03209018182313</v>
       </c>
       <c r="K24">
-        <v>0.9926932227189933</v>
+        <v>1.03361372602417</v>
       </c>
       <c r="L24">
-        <v>0.9787357607814244</v>
+        <v>1.029496314428576</v>
       </c>
       <c r="M24">
-        <v>0.9250575597739337</v>
+        <v>1.032182218180908</v>
       </c>
       <c r="N24">
-        <v>0.9815700467358403</v>
+        <v>1.033555868263718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9668814008110417</v>
+        <v>1.028559627718168</v>
       </c>
       <c r="D25">
-        <v>0.9906970387858843</v>
+        <v>1.032310434959841</v>
       </c>
       <c r="E25">
-        <v>0.9775432920670676</v>
+        <v>1.028445475527907</v>
       </c>
       <c r="F25">
-        <v>0.9366337660924869</v>
+        <v>1.032890638687031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028116754596035</v>
+        <v>1.031778769256901</v>
       </c>
       <c r="J25">
-        <v>0.9925771588024905</v>
+        <v>1.034196378262764</v>
       </c>
       <c r="K25">
-        <v>1.003441508581407</v>
+        <v>1.035373971489905</v>
       </c>
       <c r="L25">
-        <v>0.9905005188973056</v>
+        <v>1.031521298798713</v>
       </c>
       <c r="M25">
-        <v>0.9503024426899193</v>
+        <v>1.035952339425175</v>
       </c>
       <c r="N25">
-        <v>0.9939867322181813</v>
+        <v>1.03566505574388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030726297540218</v>
+        <v>0.9788949962244401</v>
       </c>
       <c r="D2">
-        <v>1.033966068688836</v>
+        <v>0.999889227026416</v>
       </c>
       <c r="E2">
-        <v>1.030315697076221</v>
+        <v>0.9875579656077168</v>
       </c>
       <c r="F2">
-        <v>1.036135004436687</v>
+        <v>0.9561352234203028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032339117213274</v>
+        <v>1.032129258276803</v>
       </c>
       <c r="J2">
-        <v>1.035865950840768</v>
+        <v>1.001725814570476</v>
       </c>
       <c r="K2">
-        <v>1.036766899286371</v>
+        <v>1.011350105308074</v>
       </c>
       <c r="L2">
-        <v>1.033127063265789</v>
+        <v>0.9991934030503973</v>
       </c>
       <c r="M2">
-        <v>1.038929613308421</v>
+        <v>0.9682414880072832</v>
       </c>
       <c r="N2">
-        <v>1.037336999306461</v>
+        <v>1.003148380126723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032294342180037</v>
+        <v>0.9871601509256953</v>
       </c>
       <c r="D3">
-        <v>1.035163171379579</v>
+        <v>1.00621412522968</v>
       </c>
       <c r="E3">
-        <v>1.031669516719321</v>
+        <v>0.9944635793691027</v>
       </c>
       <c r="F3">
-        <v>1.038474852550451</v>
+        <v>0.969234528417302</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03274007011188</v>
+        <v>1.034841616676905</v>
       </c>
       <c r="J3">
-        <v>1.037072418446276</v>
+        <v>1.008007070297175</v>
       </c>
       <c r="K3">
-        <v>1.03777205743496</v>
+        <v>1.01676810785326</v>
       </c>
       <c r="L3">
-        <v>1.034287746945129</v>
+        <v>1.005167793327078</v>
       </c>
       <c r="M3">
-        <v>1.041074943880548</v>
+        <v>0.9802768055723873</v>
       </c>
       <c r="N3">
-        <v>1.038545180234339</v>
+        <v>1.009438555957024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033306671293695</v>
+        <v>0.9923201193666195</v>
       </c>
       <c r="D4">
-        <v>1.035935506472467</v>
+        <v>1.010162660871592</v>
       </c>
       <c r="E4">
-        <v>1.032543683083307</v>
+        <v>0.9987811705779109</v>
       </c>
       <c r="F4">
-        <v>1.039981842094572</v>
+        <v>0.9772955813881909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032996811771873</v>
+        <v>1.036513752678309</v>
       </c>
       <c r="J4">
-        <v>1.037850468466743</v>
+        <v>1.011922338579866</v>
       </c>
       <c r="K4">
-        <v>1.038419634278845</v>
+        <v>1.020139959574213</v>
       </c>
       <c r="L4">
-        <v>1.035036419991269</v>
+        <v>1.008894328089933</v>
       </c>
       <c r="M4">
-        <v>1.042455778652844</v>
+        <v>0.9876759791852708</v>
       </c>
       <c r="N4">
-        <v>1.039324335175078</v>
+        <v>1.013359384369764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033731715264339</v>
+        <v>0.9944474027968818</v>
       </c>
       <c r="D5">
-        <v>1.03625966087158</v>
+        <v>1.011790404992232</v>
       </c>
       <c r="E5">
-        <v>1.032910749803587</v>
+        <v>1.00056258783714</v>
       </c>
       <c r="F5">
-        <v>1.040613733894353</v>
+        <v>0.9805944045958432</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033104103803129</v>
+        <v>1.037198148507599</v>
       </c>
       <c r="J5">
-        <v>1.038176943605635</v>
+        <v>1.013534965603047</v>
       </c>
       <c r="K5">
-        <v>1.03869120642058</v>
+        <v>1.021527497838288</v>
       </c>
       <c r="L5">
-        <v>1.035350603840775</v>
+        <v>1.010429797786935</v>
       </c>
       <c r="M5">
-        <v>1.043034563216151</v>
+        <v>0.9907021797394887</v>
       </c>
       <c r="N5">
-        <v>1.039651273946114</v>
+        <v>1.014974301508289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033803050733513</v>
+        <v>0.9948022050667229</v>
       </c>
       <c r="D6">
-        <v>1.036314056671154</v>
+        <v>1.012061882371807</v>
       </c>
       <c r="E6">
-        <v>1.032972356799872</v>
+        <v>1.000859784518334</v>
       </c>
       <c r="F6">
-        <v>1.040719735925752</v>
+        <v>0.9811432562142576</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033122081083718</v>
+        <v>1.037312007000382</v>
       </c>
       <c r="J6">
-        <v>1.038231724291079</v>
+        <v>1.013803840375811</v>
       </c>
       <c r="K6">
-        <v>1.038736765562787</v>
+        <v>1.021758769169852</v>
       </c>
       <c r="L6">
-        <v>1.03540332419342</v>
+        <v>1.010685841242774</v>
       </c>
       <c r="M6">
-        <v>1.043131644025221</v>
+        <v>0.9912055678504856</v>
       </c>
       <c r="N6">
-        <v>1.039706132426416</v>
+        <v>1.015243558114071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033312352854729</v>
+        <v>0.9923487053270295</v>
       </c>
       <c r="D7">
-        <v>1.035939839931243</v>
+        <v>1.010184534654661</v>
       </c>
       <c r="E7">
-        <v>1.032548589535038</v>
+        <v>0.9988051033929974</v>
       </c>
       <c r="F7">
-        <v>1.039990291879062</v>
+        <v>0.977340002966372</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032998247930161</v>
+        <v>1.036522968997282</v>
       </c>
       <c r="J7">
-        <v>1.037854833255858</v>
+        <v>1.011944014723308</v>
       </c>
       <c r="K7">
-        <v>1.038423265657691</v>
+        <v>1.020158615188019</v>
       </c>
       <c r="L7">
-        <v>1.035040620313448</v>
+        <v>1.008914964867976</v>
       </c>
       <c r="M7">
-        <v>1.04246351910132</v>
+        <v>0.9877167367221479</v>
       </c>
       <c r="N7">
-        <v>1.039328706162694</v>
+        <v>1.013381091295816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031256708931827</v>
+        <v>0.9817291647851725</v>
       </c>
       <c r="D8">
-        <v>1.034371110249953</v>
+        <v>1.002058049730601</v>
       </c>
       <c r="E8">
-        <v>1.030773614319127</v>
+        <v>0.9899245117708503</v>
       </c>
       <c r="F8">
-        <v>1.036927251300846</v>
+        <v>0.9606542371037941</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032475183324518</v>
+        <v>1.033063915197974</v>
       </c>
       <c r="J8">
-        <v>1.036274229151046</v>
+        <v>1.003880974771992</v>
       </c>
       <c r="K8">
-        <v>1.037107187397051</v>
+        <v>1.013210215407578</v>
       </c>
       <c r="L8">
-        <v>1.03351981688095</v>
+        <v>1.001242714047533</v>
       </c>
       <c r="M8">
-        <v>1.039656180303072</v>
+        <v>0.9723949338352829</v>
       </c>
       <c r="N8">
-        <v>1.037745857418757</v>
+        <v>1.005306600902925</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027616258844152</v>
+        <v>0.9614151325062231</v>
       </c>
       <c r="D9">
-        <v>1.031589045762062</v>
+        <v>0.9865154838967497</v>
       </c>
       <c r="E9">
-        <v>1.027631340902311</v>
+        <v>0.9729956232043132</v>
       </c>
       <c r="F9">
-        <v>1.031473944382903</v>
+        <v>0.9275558308667528</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031532575307965</v>
+        <v>1.026264830929661</v>
       </c>
       <c r="J9">
-        <v>1.033468567068438</v>
+        <v>0.9884080673220839</v>
       </c>
       <c r="K9">
-        <v>1.034766080100155</v>
+        <v>0.9998311934468349</v>
       </c>
       <c r="L9">
-        <v>1.030821462193771</v>
+        <v>0.9865425686669906</v>
       </c>
       <c r="M9">
-        <v>1.034651357771974</v>
+        <v>0.9419448453819986</v>
       </c>
       <c r="N9">
-        <v>1.034936210974177</v>
+        <v>0.9898117201496711</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025176357823643</v>
+        <v>0.9465270401144333</v>
       </c>
       <c r="D10">
-        <v>1.029721865727992</v>
+        <v>0.9751305432948769</v>
       </c>
       <c r="E10">
-        <v>1.025526143103326</v>
+        <v>0.9606387756972997</v>
       </c>
       <c r="F10">
-        <v>1.027798245861186</v>
+        <v>0.9020612826172757</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030889820239087</v>
+        <v>1.021139986580783</v>
       </c>
       <c r="J10">
-        <v>1.031583812668208</v>
+        <v>0.97703549982214</v>
       </c>
       <c r="K10">
-        <v>1.033190046329325</v>
+        <v>0.9899638259947549</v>
       </c>
       <c r="L10">
-        <v>1.029009585721149</v>
+        <v>0.9757570349654978</v>
       </c>
       <c r="M10">
-        <v>1.031273406576361</v>
+        <v>0.9184567452347778</v>
       </c>
       <c r="N10">
-        <v>1.033048780006514</v>
+        <v>0.9784230022994257</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024116620663884</v>
+        <v>0.9396831223218697</v>
       </c>
       <c r="D11">
-        <v>1.028910279322375</v>
+        <v>0.9698990235486361</v>
       </c>
       <c r="E11">
-        <v>1.024611985738713</v>
+        <v>0.9549730404624377</v>
       </c>
       <c r="F11">
-        <v>1.026196512039064</v>
+        <v>0.8899001171938338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030608029516095</v>
+        <v>1.018744172184483</v>
       </c>
       <c r="J11">
-        <v>1.030764169361866</v>
+        <v>0.9717997840071416</v>
       </c>
       <c r="K11">
-        <v>1.032503866186589</v>
+        <v>0.9854118372489835</v>
       </c>
       <c r="L11">
-        <v>1.028221826409371</v>
+        <v>0.9707971677596915</v>
       </c>
       <c r="M11">
-        <v>1.029800343335674</v>
+        <v>0.9072469354274096</v>
       </c>
       <c r="N11">
-        <v>1.032227972712662</v>
+        <v>0.9731798511674253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023722485374168</v>
+        <v>0.9370727478006893</v>
       </c>
       <c r="D12">
-        <v>1.028608346096102</v>
+        <v>0.967903931893013</v>
       </c>
       <c r="E12">
-        <v>1.024272026221178</v>
+        <v>0.9528144900537677</v>
       </c>
       <c r="F12">
-        <v>1.02559998323757</v>
+        <v>0.8851767944937562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030502832149464</v>
+        <v>1.017823546964262</v>
       </c>
       <c r="J12">
-        <v>1.030459175422984</v>
+        <v>0.9698015606780802</v>
       </c>
       <c r="K12">
-        <v>1.032248415563668</v>
+        <v>0.9836730043023639</v>
       </c>
       <c r="L12">
-        <v>1.027928725597951</v>
+        <v>0.9689051844463938</v>
       </c>
       <c r="M12">
-        <v>1.029251573289651</v>
+        <v>0.9028925345528915</v>
       </c>
       <c r="N12">
-        <v>1.031922545647404</v>
+        <v>0.9711787901320371</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023807051668285</v>
+        <v>0.9376359299409499</v>
       </c>
       <c r="D13">
-        <v>1.028673133411444</v>
+        <v>0.9683343563179481</v>
       </c>
       <c r="E13">
-        <v>1.024344967009181</v>
+        <v>0.9532800775158692</v>
       </c>
       <c r="F13">
-        <v>1.02572801273064</v>
+        <v>0.8862000387292546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030525421318817</v>
+        <v>1.018022494177983</v>
       </c>
       <c r="J13">
-        <v>1.03052462236337</v>
+        <v>0.9702327303201327</v>
       </c>
       <c r="K13">
-        <v>1.032303236667151</v>
+        <v>0.9840482772476294</v>
       </c>
       <c r="L13">
-        <v>1.027991619146767</v>
+        <v>0.9693133842965087</v>
       </c>
       <c r="M13">
-        <v>1.029369359909168</v>
+        <v>0.9038358772069521</v>
       </c>
       <c r="N13">
-        <v>1.031988085529953</v>
+        <v>0.9716105720844368</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024084051636627</v>
+        <v>0.9394687968292323</v>
       </c>
       <c r="D14">
-        <v>1.028885331155761</v>
+        <v>0.9697352105463733</v>
       </c>
       <c r="E14">
-        <v>1.024583892819993</v>
+        <v>0.9547957610531663</v>
       </c>
       <c r="F14">
-        <v>1.026147235182429</v>
+        <v>0.8895141549943497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030599344669198</v>
+        <v>1.018668727950464</v>
       </c>
       <c r="J14">
-        <v>1.030738969588338</v>
+        <v>0.9716357450486</v>
       </c>
       <c r="K14">
-        <v>1.03248276229987</v>
+        <v>0.9852691249647928</v>
       </c>
       <c r="L14">
-        <v>1.028197608700923</v>
+        <v>0.9706418300255868</v>
       </c>
       <c r="M14">
-        <v>1.02975501493239</v>
+        <v>0.9068911290062651</v>
       </c>
       <c r="N14">
-        <v>1.032202737152566</v>
+        <v>0.9730155792547468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024254653543255</v>
+        <v>0.940588753731866</v>
       </c>
       <c r="D15">
-        <v>1.029016010079717</v>
+        <v>0.9705912260923113</v>
       </c>
       <c r="E15">
-        <v>1.024731049453344</v>
+        <v>0.9557222345315768</v>
       </c>
       <c r="F15">
-        <v>1.026405321909421</v>
+        <v>0.8915274335975067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030644821176007</v>
+        <v>1.019062679276679</v>
       </c>
       <c r="J15">
-        <v>1.030870963839291</v>
+        <v>0.9724928790700993</v>
       </c>
       <c r="K15">
-        <v>1.03259329777459</v>
+        <v>0.9860147589630781</v>
       </c>
       <c r="L15">
-        <v>1.028324460163899</v>
+        <v>0.9714535382952275</v>
       </c>
       <c r="M15">
-        <v>1.029992415088466</v>
+        <v>0.9087470859352266</v>
       </c>
       <c r="N15">
-        <v>1.032334918850494</v>
+        <v>0.9738739305048713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025246619521401</v>
+        <v>0.9469721925980364</v>
       </c>
       <c r="D16">
-        <v>1.029775662160909</v>
+        <v>0.9754708618637422</v>
       </c>
       <c r="E16">
-        <v>1.025586757134148</v>
+        <v>0.9610076155628964</v>
       </c>
       <c r="F16">
-        <v>1.027904329830811</v>
+        <v>0.9028418127440663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030908448077719</v>
+        <v>1.021294936014533</v>
       </c>
       <c r="J16">
-        <v>1.031638134318934</v>
+        <v>0.9773758840023016</v>
       </c>
       <c r="K16">
-        <v>1.033235506064406</v>
+        <v>0.990259557618147</v>
       </c>
       <c r="L16">
-        <v>1.029061798302232</v>
+        <v>0.9760796098945198</v>
       </c>
       <c r="M16">
-        <v>1.031370945984456</v>
+        <v>0.9191761204128718</v>
       </c>
       <c r="N16">
-        <v>1.033103178800215</v>
+        <v>0.9787638698641655</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025867975000432</v>
+        <v>0.950864545257798</v>
       </c>
       <c r="D17">
-        <v>1.030251338573239</v>
+        <v>0.978446795073267</v>
       </c>
       <c r="E17">
-        <v>1.026122817901934</v>
+        <v>0.9642343605994912</v>
       </c>
       <c r="F17">
-        <v>1.02884186933016</v>
+        <v>0.9096157936261745</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031072880179032</v>
+        <v>1.022645260088278</v>
       </c>
       <c r="J17">
-        <v>1.032118406526788</v>
+        <v>0.9803512781749003</v>
       </c>
       <c r="K17">
-        <v>1.033637336269803</v>
+        <v>0.9928435868906248</v>
       </c>
       <c r="L17">
-        <v>1.029523445684097</v>
+        <v>0.9788999637770478</v>
       </c>
       <c r="M17">
-        <v>1.032232847157887</v>
+        <v>0.9254187503606109</v>
       </c>
       <c r="N17">
-        <v>1.033584133049692</v>
+        <v>0.9817434894377719</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026230089127442</v>
+        <v>0.9530972243854193</v>
       </c>
       <c r="D18">
-        <v>1.030528495616554</v>
+        <v>0.9801540028155924</v>
       </c>
       <c r="E18">
-        <v>1.026435243674589</v>
+        <v>0.9660865827626602</v>
       </c>
       <c r="F18">
-        <v>1.029387746170924</v>
+        <v>0.9134617643107136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03116845589857</v>
+        <v>1.023416161473864</v>
       </c>
       <c r="J18">
-        <v>1.032398201140317</v>
+        <v>0.9820572596209591</v>
       </c>
       <c r="K18">
-        <v>1.033871356157157</v>
+        <v>0.9943243289896744</v>
       </c>
       <c r="L18">
-        <v>1.029792408283091</v>
+        <v>0.9805175611518614</v>
       </c>
       <c r="M18">
-        <v>1.03273458052382</v>
+        <v>0.9289624999542095</v>
       </c>
       <c r="N18">
-        <v>1.033864325003665</v>
+        <v>0.983451893573163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026353508196021</v>
+        <v>0.953852350590514</v>
       </c>
       <c r="D19">
-        <v>1.030622948948397</v>
+        <v>0.9807314386236221</v>
       </c>
       <c r="E19">
-        <v>1.026541730823319</v>
+        <v>0.9667132529175109</v>
       </c>
       <c r="F19">
-        <v>1.029573712383158</v>
+        <v>0.9147562508519942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031200988147327</v>
+        <v>1.023676291519551</v>
       </c>
       <c r="J19">
-        <v>1.032493546534147</v>
+        <v>0.9826341266691022</v>
       </c>
       <c r="K19">
-        <v>1.033951089975153</v>
+        <v>0.9948248931874492</v>
       </c>
       <c r="L19">
-        <v>1.029884065563867</v>
+        <v>0.9810646252001654</v>
       </c>
       <c r="M19">
-        <v>1.032905490628323</v>
+        <v>0.9301551653316991</v>
       </c>
       <c r="N19">
-        <v>1.033959805798891</v>
+        <v>0.984029579838682</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02580134181444</v>
+        <v>0.9504508840231708</v>
       </c>
       <c r="D20">
-        <v>1.03020033378693</v>
+        <v>0.9781305064613557</v>
       </c>
       <c r="E20">
-        <v>1.026065329532821</v>
+        <v>0.9638912958817464</v>
       </c>
       <c r="F20">
-        <v>1.028741381337454</v>
+        <v>0.9089001212546055</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031055272837177</v>
+        <v>1.022502138964692</v>
       </c>
       <c r="J20">
-        <v>1.032066913117187</v>
+        <v>0.9800351426873335</v>
       </c>
       <c r="K20">
-        <v>1.033594261089156</v>
+        <v>0.9925691228447352</v>
       </c>
       <c r="L20">
-        <v>1.029473947274803</v>
+        <v>0.9786002474323314</v>
       </c>
       <c r="M20">
-        <v>1.032140476996024</v>
+        <v>0.9247592704273636</v>
       </c>
       <c r="N20">
-        <v>1.033532566513543</v>
+        <v>0.9814269050015515</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024002496016257</v>
+        <v>0.9389310259562266</v>
       </c>
       <c r="D21">
-        <v>1.028822857375088</v>
+        <v>0.9693241866080482</v>
       </c>
       <c r="E21">
-        <v>1.024513546277868</v>
+        <v>0.9543509838659016</v>
       </c>
       <c r="F21">
-        <v>1.02602382847361</v>
+        <v>0.8885442878555829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030577590701106</v>
+        <v>1.018479315527883</v>
       </c>
       <c r="J21">
-        <v>1.030675864723755</v>
+        <v>0.9712241294594353</v>
       </c>
       <c r="K21">
-        <v>1.032429912366148</v>
+        <v>0.9849109977743916</v>
       </c>
       <c r="L21">
-        <v>1.028136963575504</v>
+        <v>0.9702520639365032</v>
       </c>
       <c r="M21">
-        <v>1.029641493940848</v>
+        <v>0.9059970308716289</v>
       </c>
       <c r="N21">
-        <v>1.032139542671837</v>
+        <v>0.9726033791242323</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022868580202765</v>
+        <v>0.9312873128790948</v>
       </c>
       <c r="D22">
-        <v>1.027954036192125</v>
+        <v>0.9634825950824271</v>
       </c>
       <c r="E22">
-        <v>1.02353555415849</v>
+        <v>0.9480352841931875</v>
       </c>
       <c r="F22">
-        <v>1.024306064960743</v>
+        <v>0.8745235989192705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030274196624589</v>
+        <v>1.015769248986798</v>
       </c>
       <c r="J22">
-        <v>1.029798116324696</v>
+        <v>0.9653704149355363</v>
       </c>
       <c r="K22">
-        <v>1.031694521307858</v>
+        <v>0.9798139207298249</v>
       </c>
       <c r="L22">
-        <v>1.027293497444247</v>
+        <v>0.964711583478536</v>
       </c>
       <c r="M22">
-        <v>1.028060951770725</v>
+        <v>0.8930707616688284</v>
       </c>
       <c r="N22">
-        <v>1.031260547769372</v>
+        <v>0.966741351654279</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02346997111175</v>
+        <v>0.9353808134940499</v>
       </c>
       <c r="D23">
-        <v>1.028414878640311</v>
+        <v>0.966610869607295</v>
       </c>
       <c r="E23">
-        <v>1.024054230397335</v>
+        <v>0.951416133635019</v>
       </c>
       <c r="F23">
-        <v>1.025217566723101</v>
+        <v>0.8820884218998916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030435323262729</v>
+        <v>1.017224776838409</v>
       </c>
       <c r="J23">
-        <v>1.030263728888343</v>
+        <v>0.9685060326410516</v>
       </c>
       <c r="K23">
-        <v>1.032084683915032</v>
+        <v>0.9825451822572423</v>
       </c>
       <c r="L23">
-        <v>1.02774090860074</v>
+        <v>0.9676788259681153</v>
       </c>
       <c r="M23">
-        <v>1.028899727971999</v>
+        <v>0.9000452654600882</v>
       </c>
       <c r="N23">
-        <v>1.031726821556266</v>
+        <v>0.9698814222965967</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025831451447001</v>
+        <v>0.95063791549906</v>
       </c>
       <c r="D24">
-        <v>1.030223381571971</v>
+        <v>0.9782735115891585</v>
       </c>
       <c r="E24">
-        <v>1.02609130682291</v>
+        <v>0.9640464039216285</v>
       </c>
       <c r="F24">
-        <v>1.028786790543523</v>
+        <v>0.9092238251380569</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031063229871298</v>
+        <v>1.02256686060805</v>
       </c>
       <c r="J24">
-        <v>1.03209018182313</v>
+        <v>0.9801780814322087</v>
       </c>
       <c r="K24">
-        <v>1.03361372602417</v>
+        <v>0.992693222718993</v>
       </c>
       <c r="L24">
-        <v>1.029496314428576</v>
+        <v>0.9787357607814237</v>
       </c>
       <c r="M24">
-        <v>1.032182218180908</v>
+        <v>0.9250575597739352</v>
       </c>
       <c r="N24">
-        <v>1.033555868263718</v>
+        <v>0.9815700467358399</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028559627718168</v>
+        <v>0.9668814008110421</v>
       </c>
       <c r="D25">
-        <v>1.032310434959841</v>
+        <v>0.9906970387858847</v>
       </c>
       <c r="E25">
-        <v>1.028445475527907</v>
+        <v>0.9775432920670678</v>
       </c>
       <c r="F25">
-        <v>1.032890638687031</v>
+        <v>0.9366337660924864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031778769256901</v>
+        <v>1.028116754596035</v>
       </c>
       <c r="J25">
-        <v>1.034196378262764</v>
+        <v>0.9925771588024909</v>
       </c>
       <c r="K25">
-        <v>1.035373971489905</v>
+        <v>1.003441508581407</v>
       </c>
       <c r="L25">
-        <v>1.031521298798713</v>
+        <v>0.9905005188973061</v>
       </c>
       <c r="M25">
-        <v>1.035952339425175</v>
+        <v>0.9503024426899187</v>
       </c>
       <c r="N25">
-        <v>1.03566505574388</v>
+        <v>0.9939867322181821</v>
       </c>
     </row>
   </sheetData>
